--- a/flows/TAGS_fund_flow_data.xlsx
+++ b/flows/TAGS_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2855"/>
+  <dimension ref="A1:B2872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28985,6 +28985,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2856">
+      <c r="A2856" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2859" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2863" t="n">
+        <v>-0.68075</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2869" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2871" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2872" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
